--- a/app/Plantillas/Entrada/Copia de PID_largo 2015 - 2025.xlsx
+++ b/app/Plantillas/Entrada/Copia de PID_largo 2015 - 2025.xlsx
@@ -63925,13 +63925,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1262049B-C123-4B20-AED6-D2B63F0F34FD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCB6BE4-FFF3-4AC7-83E3-19E4DD72EDF6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87D62AEC-43A5-4646-BF1C-09528E12069C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24163647-E46A-4C30-9FED-6AB0D96E4BC3}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4DE0C67-1246-4D3D-BA26-469885B88AE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03BE5C05-AE11-4A9A-BEC2-99DEC0BC87A4}"/>
 </file>